--- a/medicine/Psychotrope/Sierra_Nevada_Brewing_Company/Sierra_Nevada_Brewing_Company.xlsx
+++ b/medicine/Psychotrope/Sierra_Nevada_Brewing_Company/Sierra_Nevada_Brewing_Company.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Sierra Nevada Brewing Company est une brasserie américaine fondée en 1979 par Ken Grossman et Paul Camusi (ce dernier a pris sa retraite en 1998 et vendu ses parts à Grossman). Elle commercialise des bières depuis février 1981 et est basée à Chico, en Californie.
@@ -517,19 +529,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Produits phares
-Sierra Nevada Pale Ale
+          <t>Produits phares</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sierra Nevada Pale Ale
 Sierra Nevada Porter
 Sierra Nevada Wheat
-Sierra Nevada Stout
-Bières de saison
-Celebration Ale
+Sierra Nevada Stout</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sierra_Nevada_Brewing_Company</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sierra_Nevada_Brewing_Company</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bières de saison</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Celebration Ale
 Summerfest
 Bigfoot Barleywine Style Ale
 Narwhal
-Harvest Northern Hemisphere
-Spécialités
-India Pale Ale
+Harvest Northern Hemisphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sierra_Nevada_Brewing_Company</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sierra_Nevada_Brewing_Company</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Spécialités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>India Pale Ale
 Brown Ale
 Crystal Wheat
 Blonde Ale
